--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D27A7C8-8D02-4BFA-8ADC-5778F48BA9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6A5A18-13D2-49AE-9B07-6B74D7F022F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="0" windowWidth="8856" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,19 +26,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>allo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>Card Effect #1</t>
+  </si>
+  <si>
+    <t>Card ID</t>
+  </si>
+  <si>
+    <t>Card Effect #2</t>
+  </si>
+  <si>
+    <t>Card Effect #3</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Action Target</t>
+  </si>
+  <si>
+    <t>Downside</t>
+  </si>
+  <si>
+    <t>SPONTANEOUS</t>
+  </si>
+  <si>
+    <t>Other Keywords</t>
+  </si>
+  <si>
+    <t>RETALIATE</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>ONGOING</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>RESTRICT 1</t>
+  </si>
+  <si>
+    <t>RESTRICT 2</t>
+  </si>
+  <si>
+    <t>RESTRICT 3</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>PLAN PHASE</t>
+  </si>
+  <si>
+    <t>ESCAPE PHASE</t>
+  </si>
+  <si>
+    <t>FINAL PHASE</t>
+  </si>
+  <si>
+    <t>PREPARE PHASE</t>
+  </si>
+  <si>
+    <t>Vanish</t>
+  </si>
+  <si>
+    <t>Disintegrate</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Mill</t>
+  </si>
+  <si>
+    <t>1 card</t>
+  </si>
+  <si>
+    <t>2 cards</t>
+  </si>
+  <si>
+    <t>3 cards</t>
+  </si>
+  <si>
+    <t>1 anomaly</t>
+  </si>
+  <si>
+    <t>1 room</t>
+  </si>
+  <si>
+    <t>1 activator</t>
+  </si>
+  <si>
+    <t>2 anomalies</t>
+  </si>
+  <si>
+    <t>2 rooms</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card name&gt;</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card name&gt; and 1 &lt;other specific card name&gt;</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card name&gt; or 1 &lt;other specific card name&gt;</t>
+  </si>
+  <si>
+    <t>1 red card</t>
+  </si>
+  <si>
+    <t>1 green card</t>
+  </si>
+  <si>
+    <t>1 orange card</t>
+  </si>
+  <si>
+    <t>1 purple card</t>
+  </si>
+  <si>
+    <t>1 black card</t>
+  </si>
+  <si>
+    <t>1 gray card</t>
+  </si>
+  <si>
+    <t>1 red room</t>
+  </si>
+  <si>
+    <t>1 red anomaly</t>
+  </si>
+  <si>
+    <t>1 red activator</t>
+  </si>
+  <si>
+    <t>1 green anomaly</t>
+  </si>
+  <si>
+    <t>1 green room</t>
+  </si>
+  <si>
+    <t>1 green activator</t>
+  </si>
+  <si>
+    <t>1 orange anomaly</t>
+  </si>
+  <si>
+    <t>1 orange room</t>
+  </si>
+  <si>
+    <t>1 orange activator</t>
+  </si>
+  <si>
+    <t>1 purple anomaly</t>
+  </si>
+  <si>
+    <t>1 purple room</t>
+  </si>
+  <si>
+    <t>1 purple activator</t>
+  </si>
+  <si>
+    <t>1 gray anomaly</t>
+  </si>
+  <si>
+    <t>1 gray room</t>
+  </si>
+  <si>
+    <t>1 gray activator</t>
+  </si>
+  <si>
+    <t>1 black anomaly</t>
+  </si>
+  <si>
+    <t>1 black room</t>
+  </si>
+  <si>
+    <t>1 black activator</t>
+  </si>
+  <si>
+    <t>discard 1 card.</t>
+  </si>
+  <si>
+    <t>exhaust 1 card.</t>
+  </si>
+  <si>
+    <t>exhaust 2 cards.</t>
+  </si>
+  <si>
+    <t>exhaust 1 anomaly.</t>
+  </si>
+  <si>
+    <t>exhaust 1 activator.</t>
+  </si>
+  <si>
+    <t>vanish 1 card you own.</t>
+  </si>
+  <si>
+    <t>disintegrate 1 card you own.</t>
+  </si>
+  <si>
+    <t>DOUBLE AMBUSH</t>
+  </si>
+  <si>
+    <t>IMMUNE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +250,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +285,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,23 +594,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530D00D6-A3A9-494A-B58E-0CE32A85C62B}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6A5A18-13D2-49AE-9B07-6B74D7F022F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D56AAA-F432-4C41-8CC5-E62359D7DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="0" windowWidth="8856" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Card Effect #1</t>
   </si>
@@ -52,48 +52,15 @@
     <t>Downside</t>
   </si>
   <si>
-    <t>SPONTANEOUS</t>
-  </si>
-  <si>
     <t>Other Keywords</t>
   </si>
   <si>
-    <t>RETALIATE</t>
-  </si>
-  <si>
-    <t>MANUAL</t>
-  </si>
-  <si>
-    <t>ONGOING</t>
-  </si>
-  <si>
     <t>Restriction</t>
   </si>
   <si>
-    <t>RESTRICT 1</t>
-  </si>
-  <si>
-    <t>RESTRICT 2</t>
-  </si>
-  <si>
-    <t>RESTRICT 3</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
-    <t>PLAN PHASE</t>
-  </si>
-  <si>
-    <t>ESCAPE PHASE</t>
-  </si>
-  <si>
-    <t>FINAL PHASE</t>
-  </si>
-  <si>
-    <t>PREPARE PHASE</t>
-  </si>
-  <si>
     <t>Vanish</t>
   </si>
   <si>
@@ -211,31 +178,91 @@
     <t>1 black activator</t>
   </si>
   <si>
-    <t>discard 1 card.</t>
-  </si>
-  <si>
-    <t>exhaust 1 card.</t>
-  </si>
-  <si>
-    <t>exhaust 2 cards.</t>
-  </si>
-  <si>
-    <t>exhaust 1 anomaly.</t>
-  </si>
-  <si>
-    <t>exhaust 1 activator.</t>
-  </si>
-  <si>
-    <t>vanish 1 card you own.</t>
-  </si>
-  <si>
-    <t>disintegrate 1 card you own.</t>
-  </si>
-  <si>
-    <t>DOUBLE AMBUSH</t>
-  </si>
-  <si>
-    <t>IMMUNE</t>
+    <t>discard 1 card</t>
+  </si>
+  <si>
+    <t>exhaust 1 card you own</t>
+  </si>
+  <si>
+    <t>exhaust 2 cards you own</t>
+  </si>
+  <si>
+    <t>exhaust 1 anomaly you own</t>
+  </si>
+  <si>
+    <t>exhaust 1 activator you own</t>
+  </si>
+  <si>
+    <t>vanish 1 card you own</t>
+  </si>
+  <si>
+    <t>disintegrate 1 card you own</t>
+  </si>
+  <si>
+    <t>Spontaneous Trigger</t>
+  </si>
+  <si>
+    <t>(when played)</t>
+  </si>
+  <si>
+    <t>(on attack)</t>
+  </si>
+  <si>
+    <t>(when drawn)</t>
+  </si>
+  <si>
+    <t>(when milled)</t>
+  </si>
+  <si>
+    <t>(when vanished)</t>
+  </si>
+  <si>
+    <t>(when disintegrated)</t>
+  </si>
+  <si>
+    <t>(when discarded)</t>
+  </si>
+  <si>
+    <t>Restore</t>
+  </si>
+  <si>
+    <t>(when restored)</t>
+  </si>
+  <si>
+    <t>[DOUBLE AMBUSH]</t>
+  </si>
+  <si>
+    <t>[IMMUNE]</t>
+  </si>
+  <si>
+    <t>[RESTRICT 1]</t>
+  </si>
+  <si>
+    <t>[RESTRICT 2]</t>
+  </si>
+  <si>
+    <t>[RESTRICT 3]</t>
+  </si>
+  <si>
+    <t>[PREPARE PHASE]</t>
+  </si>
+  <si>
+    <t>[PLAN PHASE]</t>
+  </si>
+  <si>
+    <t>[ESCAPE PHASE]</t>
+  </si>
+  <si>
+    <t>[FINAL PHASE]</t>
+  </si>
+  <si>
+    <t>[SPONTANEOUS]</t>
+  </si>
+  <si>
+    <t>[RETALIATE]</t>
+  </si>
+  <si>
+    <t>[MANUAL]</t>
   </si>
 </sst>
 </file>
@@ -595,292 +622,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530D00D6-A3A9-494A-B58E-0CE32A85C62B}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="1" t="s">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="1" t="s">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D56AAA-F432-4C41-8CC5-E62359D7DC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6707AA59-F39D-4980-BBDE-E814ECF77E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Card Effect #1</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>[MANUAL]</t>
+  </si>
+  <si>
+    <t>Card Type</t>
+  </si>
+  <si>
+    <t>Anomaly</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Activator</t>
   </si>
 </sst>
 </file>
@@ -622,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530D00D6-A3A9-494A-B58E-0CE32A85C62B}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,10 +650,11 @@
     <col min="6" max="6" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
+    <col min="9" max="9" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -666,8 +679,11 @@
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>76</v>
       </c>
@@ -683,8 +699,11 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -709,8 +728,11 @@
       <c r="H3" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -735,8 +757,11 @@
       <c r="H4" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
@@ -753,7 +778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
@@ -770,7 +795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -781,7 +806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>66</v>
       </c>
@@ -792,7 +817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
@@ -803,37 +828,37 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="s">
         <v>34</v>
       </c>

--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6707AA59-F39D-4980-BBDE-E814ECF77E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C129347-669D-484B-88E6-AF31014E2FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,15 +97,6 @@
     <t>2 rooms</t>
   </si>
   <si>
-    <t>1 &lt;specific card name&gt;</t>
-  </si>
-  <si>
-    <t>1 &lt;specific card name&gt; and 1 &lt;other specific card name&gt;</t>
-  </si>
-  <si>
-    <t>1 &lt;specific card name&gt; or 1 &lt;other specific card name&gt;</t>
-  </si>
-  <si>
     <t>1 red card</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>(when played)</t>
   </si>
   <si>
-    <t>(on attack)</t>
-  </si>
-  <si>
     <t>(when drawn)</t>
   </si>
   <si>
@@ -253,9 +241,6 @@
     <t>[ESCAPE PHASE]</t>
   </si>
   <si>
-    <t>[FINAL PHASE]</t>
-  </si>
-  <si>
     <t>[SPONTANEOUS]</t>
   </si>
   <si>
@@ -275,6 +260,21 @@
   </si>
   <si>
     <t>Activator</t>
+  </si>
+  <si>
+    <t>[RESOLUTION PHASE]</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card tag&gt;</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card tag&gt; and 1 &lt;specific card tag&gt;</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card tag&gt; or 1 &lt;specific card tag&gt;</t>
+  </si>
+  <si>
+    <t>(on ambush)</t>
   </si>
 </sst>
 </file>
@@ -637,14 +637,14 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -680,18 +680,18 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -700,21 +700,21 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -723,27 +723,27 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -752,21 +752,21 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -775,192 +775,192 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F36" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C129347-669D-484B-88E6-AF31014E2FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030A45F0-10F2-4250-B11A-8D259E8A9EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,16 +265,16 @@
     <t>[RESOLUTION PHASE]</t>
   </si>
   <si>
-    <t>1 &lt;specific card tag&gt;</t>
-  </si>
-  <si>
-    <t>1 &lt;specific card tag&gt; and 1 &lt;specific card tag&gt;</t>
-  </si>
-  <si>
-    <t>1 &lt;specific card tag&gt; or 1 &lt;specific card tag&gt;</t>
-  </si>
-  <si>
     <t>(on ambush)</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card tag&gt; card</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card tag&gt; card and 1 &lt;specific card tag&gt; card</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card tag&gt; card or 1 &lt;specific card tag&gt; card</t>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530D00D6-A3A9-494A-B58E-0CE32A85C62B}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,7 @@
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="1" bestFit="1" customWidth="1"/>
@@ -708,7 +708,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -830,17 +830,17 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">

--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030A45F0-10F2-4250-B11A-8D259E8A9EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBEA84-8796-415E-AD7E-EF02772A852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Card Effect #1</t>
   </si>
@@ -79,9 +79,6 @@
     <t>2 cards</t>
   </si>
   <si>
-    <t>3 cards</t>
-  </si>
-  <si>
     <t>1 anomaly</t>
   </si>
   <si>
@@ -275,6 +272,51 @@
   </si>
   <si>
     <t>1 &lt;specific card tag&gt; card or 1 &lt;specific card tag&gt; card</t>
+  </si>
+  <si>
+    <t>1 action</t>
+  </si>
+  <si>
+    <t>2 actions</t>
+  </si>
+  <si>
+    <t>1 red action</t>
+  </si>
+  <si>
+    <t>1 green action</t>
+  </si>
+  <si>
+    <t>1 orange action</t>
+  </si>
+  <si>
+    <t>1 purple action</t>
+  </si>
+  <si>
+    <t>1 gray action</t>
+  </si>
+  <si>
+    <t>1 black action</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Black</t>
   </si>
 </sst>
 </file>
@@ -634,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530D00D6-A3A9-494A-B58E-0CE32A85C62B}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,12 +696,12 @@
     <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -680,18 +722,21 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -700,21 +745,24 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -723,27 +771,30 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -752,215 +803,265 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F36" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBEA84-8796-415E-AD7E-EF02772A852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F114DC-2FE4-4052-95A2-B364BEF72B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -1,338 +1,375 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F114DC-2FE4-4052-95A2-B364BEF72B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0617EB65-9C38-43C7-87C0-CABDCD06940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
-  <si>
-    <t>Card Effect #1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Spontaneous Trigger</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Action Target</t>
+  </si>
+  <si>
+    <t>Downside</t>
+  </si>
+  <si>
+    <t>Other Keywords</t>
+  </si>
+  <si>
+    <t>Card Type</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>[SPONTANEOUS]</t>
+  </si>
+  <si>
+    <t>(when played)</t>
+  </si>
+  <si>
+    <t>[RESTRICT 1]</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>1 card</t>
+  </si>
+  <si>
+    <t>Anomaly</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>[RETALIATE]</t>
+  </si>
+  <si>
+    <t>(on ambush)</t>
+  </si>
+  <si>
+    <t>[PREPARE PHASE]</t>
+  </si>
+  <si>
+    <t>[RESTRICT 2]</t>
+  </si>
+  <si>
+    <t>Vanish</t>
+  </si>
+  <si>
+    <t>2 cards</t>
+  </si>
+  <si>
+    <t>discard 1 card</t>
+  </si>
+  <si>
+    <t>[DOUBLE AMBUSH]</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>[MANUAL]</t>
+  </si>
+  <si>
+    <t>(when drawn)</t>
+  </si>
+  <si>
+    <t>[PLAN PHASE]</t>
+  </si>
+  <si>
+    <t>[RESTRICT 3]</t>
+  </si>
+  <si>
+    <t>Disintegrate</t>
+  </si>
+  <si>
+    <t>1 anomaly</t>
+  </si>
+  <si>
+    <t>exhaust 1 card you own</t>
+  </si>
+  <si>
+    <t>[IMMUNE]</t>
+  </si>
+  <si>
+    <t>Activator</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>(when milled)</t>
+  </si>
+  <si>
+    <t>[ESCAPE PHASE]</t>
+  </si>
+  <si>
+    <t>Mill</t>
+  </si>
+  <si>
+    <t>2 anomalies</t>
+  </si>
+  <si>
+    <t>exhaust 2 cards you own</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>(when vanished)</t>
+  </si>
+  <si>
+    <t>[RESOLUTION PHASE]</t>
+  </si>
+  <si>
+    <t>Restore</t>
+  </si>
+  <si>
+    <t>1 room</t>
+  </si>
+  <si>
+    <t>exhaust 1 anomaly you own</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>(when disintegrated)</t>
+  </si>
+  <si>
+    <t>2 rooms</t>
+  </si>
+  <si>
+    <t>exhaust 1 activator you own</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>(when restored)</t>
+  </si>
+  <si>
+    <t>1 activator</t>
+  </si>
+  <si>
+    <t>vanish 1 card you own</t>
+  </si>
+  <si>
+    <t>(when discarded)</t>
+  </si>
+  <si>
+    <t>1 action</t>
+  </si>
+  <si>
+    <t>disintegrate 1 card you own</t>
+  </si>
+  <si>
+    <t>2 actions</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card tag&gt; card</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card tag&gt; card and 1 &lt;specific card tag&gt; card</t>
+  </si>
+  <si>
+    <t>1 &lt;specific card tag&gt; card or 1 &lt;specific card tag&gt; card</t>
+  </si>
+  <si>
+    <t>1 red card</t>
+  </si>
+  <si>
+    <t>1 red anomaly</t>
+  </si>
+  <si>
+    <t>1 red room</t>
+  </si>
+  <si>
+    <t>1 red activator</t>
+  </si>
+  <si>
+    <t>1 red action</t>
+  </si>
+  <si>
+    <t>1 green card</t>
+  </si>
+  <si>
+    <t>1 green anomaly</t>
+  </si>
+  <si>
+    <t>1 green room</t>
+  </si>
+  <si>
+    <t>1 green activator</t>
+  </si>
+  <si>
+    <t>1 green action</t>
+  </si>
+  <si>
+    <t>1 orange card</t>
+  </si>
+  <si>
+    <t>1 orange anomaly</t>
+  </si>
+  <si>
+    <t>1 orange room</t>
+  </si>
+  <si>
+    <t>1 orange activator</t>
+  </si>
+  <si>
+    <t>1 orange action</t>
+  </si>
+  <si>
+    <t>1 purple card</t>
+  </si>
+  <si>
+    <t>1 purple anomaly</t>
+  </si>
+  <si>
+    <t>1 purple room</t>
+  </si>
+  <si>
+    <t>1 purple activator</t>
+  </si>
+  <si>
+    <t>1 purple action</t>
+  </si>
+  <si>
+    <t>1 gray card</t>
+  </si>
+  <si>
+    <t>1 gray anomaly</t>
+  </si>
+  <si>
+    <t>1 gray room</t>
+  </si>
+  <si>
+    <t>1 gray activator</t>
+  </si>
+  <si>
+    <t>1 gray action</t>
+  </si>
+  <si>
+    <t>1 black card</t>
+  </si>
+  <si>
+    <t>1 black anomaly</t>
+  </si>
+  <si>
+    <t>1 black room</t>
+  </si>
+  <si>
+    <t>1 black activator</t>
+  </si>
+  <si>
+    <t>1 black action</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Card Name</t>
   </si>
   <si>
     <t>Card ID</t>
   </si>
   <si>
-    <t>Card Effect #2</t>
-  </si>
-  <si>
-    <t>Card Effect #3</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Action Target</t>
-  </si>
-  <si>
-    <t>Downside</t>
-  </si>
-  <si>
-    <t>Other Keywords</t>
-  </si>
-  <si>
-    <t>Restriction</t>
-  </si>
-  <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>Vanish</t>
-  </si>
-  <si>
-    <t>Disintegrate</t>
-  </si>
-  <si>
-    <t>Draw</t>
-  </si>
-  <si>
-    <t>Mill</t>
-  </si>
-  <si>
-    <t>1 card</t>
-  </si>
-  <si>
-    <t>2 cards</t>
-  </si>
-  <si>
-    <t>1 anomaly</t>
-  </si>
-  <si>
-    <t>1 room</t>
-  </si>
-  <si>
-    <t>1 activator</t>
-  </si>
-  <si>
-    <t>2 anomalies</t>
-  </si>
-  <si>
-    <t>2 rooms</t>
-  </si>
-  <si>
-    <t>1 red card</t>
-  </si>
-  <si>
-    <t>1 green card</t>
-  </si>
-  <si>
-    <t>1 orange card</t>
-  </si>
-  <si>
-    <t>1 purple card</t>
-  </si>
-  <si>
-    <t>1 black card</t>
-  </si>
-  <si>
-    <t>1 gray card</t>
-  </si>
-  <si>
-    <t>1 red room</t>
-  </si>
-  <si>
-    <t>1 red anomaly</t>
-  </si>
-  <si>
-    <t>1 red activator</t>
-  </si>
-  <si>
-    <t>1 green anomaly</t>
-  </si>
-  <si>
-    <t>1 green room</t>
-  </si>
-  <si>
-    <t>1 green activator</t>
-  </si>
-  <si>
-    <t>1 orange anomaly</t>
-  </si>
-  <si>
-    <t>1 orange room</t>
-  </si>
-  <si>
-    <t>1 orange activator</t>
-  </si>
-  <si>
-    <t>1 purple anomaly</t>
-  </si>
-  <si>
-    <t>1 purple room</t>
-  </si>
-  <si>
-    <t>1 purple activator</t>
-  </si>
-  <si>
-    <t>1 gray anomaly</t>
-  </si>
-  <si>
-    <t>1 gray room</t>
-  </si>
-  <si>
-    <t>1 gray activator</t>
-  </si>
-  <si>
-    <t>1 black anomaly</t>
-  </si>
-  <si>
-    <t>1 black room</t>
-  </si>
-  <si>
-    <t>1 black activator</t>
-  </si>
-  <si>
-    <t>discard 1 card</t>
-  </si>
-  <si>
-    <t>exhaust 1 card you own</t>
-  </si>
-  <si>
-    <t>exhaust 2 cards you own</t>
-  </si>
-  <si>
-    <t>exhaust 1 anomaly you own</t>
-  </si>
-  <si>
-    <t>exhaust 1 activator you own</t>
-  </si>
-  <si>
-    <t>vanish 1 card you own</t>
-  </si>
-  <si>
-    <t>disintegrate 1 card you own</t>
-  </si>
-  <si>
-    <t>Spontaneous Trigger</t>
-  </si>
-  <si>
-    <t>(when played)</t>
-  </si>
-  <si>
-    <t>(when drawn)</t>
-  </si>
-  <si>
-    <t>(when milled)</t>
-  </si>
-  <si>
-    <t>(when vanished)</t>
-  </si>
-  <si>
-    <t>(when disintegrated)</t>
-  </si>
-  <si>
-    <t>(when discarded)</t>
-  </si>
-  <si>
-    <t>Restore</t>
-  </si>
-  <si>
-    <t>(when restored)</t>
-  </si>
-  <si>
-    <t>[DOUBLE AMBUSH]</t>
-  </si>
-  <si>
-    <t>[IMMUNE]</t>
-  </si>
-  <si>
-    <t>[RESTRICT 1]</t>
-  </si>
-  <si>
-    <t>[RESTRICT 2]</t>
-  </si>
-  <si>
-    <t>[RESTRICT 3]</t>
-  </si>
-  <si>
-    <t>[PREPARE PHASE]</t>
-  </si>
-  <si>
-    <t>[PLAN PHASE]</t>
-  </si>
-  <si>
-    <t>[ESCAPE PHASE]</t>
-  </si>
-  <si>
-    <t>[SPONTANEOUS]</t>
-  </si>
-  <si>
-    <t>[RETALIATE]</t>
-  </si>
-  <si>
-    <t>[MANUAL]</t>
-  </si>
-  <si>
-    <t>Card Type</t>
-  </si>
-  <si>
-    <t>Anomaly</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Activator</t>
-  </si>
-  <si>
-    <t>[RESOLUTION PHASE]</t>
-  </si>
-  <si>
-    <t>(on ambush)</t>
-  </si>
-  <si>
-    <t>1 &lt;specific card tag&gt; card</t>
-  </si>
-  <si>
-    <t>1 &lt;specific card tag&gt; card and 1 &lt;specific card tag&gt; card</t>
-  </si>
-  <si>
-    <t>1 &lt;specific card tag&gt; card or 1 &lt;specific card tag&gt; card</t>
-  </si>
-  <si>
-    <t>1 action</t>
-  </si>
-  <si>
-    <t>2 actions</t>
-  </si>
-  <si>
-    <t>1 red action</t>
-  </si>
-  <si>
-    <t>1 green action</t>
-  </si>
-  <si>
-    <t>1 orange action</t>
-  </si>
-  <si>
-    <t>1 purple action</t>
-  </si>
-  <si>
-    <t>1 gray action</t>
-  </si>
-  <si>
-    <t>1 black action</t>
-  </si>
-  <si>
-    <t>Colors</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Black</t>
+    <t>Card Color</t>
+  </si>
+  <si>
+    <t>Danger Level</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Effect 1</t>
+  </si>
+  <si>
+    <t>Effect 1 Cost</t>
+  </si>
+  <si>
+    <t>Effect 1 Color</t>
+  </si>
+  <si>
+    <t>Effect 1 Danger</t>
+  </si>
+  <si>
+    <t>Effect 2</t>
+  </si>
+  <si>
+    <t>Effect 2 Cost</t>
+  </si>
+  <si>
+    <t>Effect 2 Color</t>
+  </si>
+  <si>
+    <t>Effect 2 Danger</t>
+  </si>
+  <si>
+    <t>Effect 3</t>
+  </si>
+  <si>
+    <t>Effect 3 Cost</t>
+  </si>
+  <si>
+    <t>Effect 3 Color</t>
+  </si>
+  <si>
+    <t>Effect 3 Danger</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -675,10 +712,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530D00D6-A3A9-494A-B58E-0CE32A85C62B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -693,410 +730,755 @@
     <col min="7" max="7" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="1"/>
+    <col min="10" max="15" width="11.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F35" s="1" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F40" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F41" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F42" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F43" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="10" width="8.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>11</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <v>14</v>
+      </c>
+      <c r="P26">
+        <v>15</v>
+      </c>
+      <c r="Q26">
+        <v>16</v>
+      </c>
+      <c r="R26">
+        <v>17</v>
+      </c>
+      <c r="S26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27">
+        <v>320</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27">
+        <v>470</v>
+      </c>
+      <c r="S27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48">
+        <v>320</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48">
+        <v>470</v>
+      </c>
+      <c r="S48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49">
+        <v>320</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49">
+        <v>470</v>
+      </c>
+      <c r="S49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50" t="s">
+        <v>104</v>
+      </c>
+      <c r="L50" t="s">
+        <v>105</v>
+      </c>
+      <c r="M50" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" t="s">
+        <v>107</v>
+      </c>
+      <c r="O50" t="s">
+        <v>108</v>
+      </c>
+      <c r="P50" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>110</v>
+      </c>
+      <c r="R50" t="s">
+        <v>111</v>
+      </c>
+      <c r="S50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51">
+        <v>320</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51">
+        <v>470</v>
+      </c>
+      <c r="S51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" t="s">
+        <v>104</v>
+      </c>
+      <c r="L52" t="s">
+        <v>105</v>
+      </c>
+      <c r="M52" t="s">
+        <v>106</v>
+      </c>
+      <c r="N52" t="s">
+        <v>107</v>
+      </c>
+      <c r="O52" t="s">
+        <v>108</v>
+      </c>
+      <c r="P52" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>110</v>
+      </c>
+      <c r="R52" t="s">
+        <v>111</v>
+      </c>
+      <c r="S52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53">
+        <v>320</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J53">
+        <v>470</v>
+      </c>
+      <c r="S53" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0617EB65-9C38-43C7-87C0-CABDCD06940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE28844-ECBF-4A0C-AD04-4A3F175E4F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>Trigger</t>
   </si>
@@ -300,12 +300,6 @@
   </si>
   <si>
     <t>1 black action</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
   <si>
     <t>Card Name</t>
@@ -366,8 +360,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -390,12 +397,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -418,19 +425,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,53 +741,53 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="11.5546875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1109,379 +1134,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="8.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="8.88671875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
-      <c r="I26">
+      <c r="B1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J26">
-        <v>9</v>
-      </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>11</v>
-      </c>
-      <c r="M26">
-        <v>12</v>
-      </c>
-      <c r="N26">
-        <v>13</v>
-      </c>
-      <c r="O26">
-        <v>14</v>
-      </c>
-      <c r="P26">
-        <v>15</v>
-      </c>
-      <c r="Q26">
-        <v>16</v>
-      </c>
-      <c r="R26">
-        <v>17</v>
-      </c>
-      <c r="S26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27">
-        <v>320</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27">
-        <v>470</v>
-      </c>
-      <c r="S27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48">
-        <v>320</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="I48" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48">
-        <v>470</v>
-      </c>
-      <c r="S48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49">
-        <v>320</v>
-      </c>
-      <c r="C49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="I49" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49">
-        <v>470</v>
-      </c>
-      <c r="S49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="F1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M50" t="s">
+      <c r="O1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N50" t="s">
+      <c r="P1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O50" t="s">
+      <c r="Q1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="S1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="R50" t="s">
-        <v>111</v>
-      </c>
-      <c r="S50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51">
-        <v>320</v>
-      </c>
-      <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-      <c r="I51" t="s">
-        <v>52</v>
-      </c>
-      <c r="J51">
-        <v>470</v>
-      </c>
-      <c r="S51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I52" t="s">
-        <v>102</v>
-      </c>
-      <c r="J52" t="s">
-        <v>103</v>
-      </c>
-      <c r="K52" t="s">
-        <v>104</v>
-      </c>
-      <c r="L52" t="s">
-        <v>105</v>
-      </c>
-      <c r="M52" t="s">
-        <v>106</v>
-      </c>
-      <c r="N52" t="s">
-        <v>107</v>
-      </c>
-      <c r="O52" t="s">
-        <v>108</v>
-      </c>
-      <c r="P52" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>110</v>
-      </c>
-      <c r="R52" t="s">
-        <v>111</v>
-      </c>
-      <c r="S52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53">
-        <v>320</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="I53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J53">
-        <v>470</v>
-      </c>
-      <c r="S53" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE28844-ECBF-4A0C-AD04-4A3F175E4F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1561FD9B-0C96-4B1E-B5ED-8C0912B280F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
   <si>
     <t>Trigger</t>
   </si>
@@ -354,6 +354,21 @@
   </si>
   <si>
     <t>Tag</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>TEST123</t>
+  </si>
+  <si>
+    <t>[SPONTANEOUS] [RESTRICT 1] : Restore 1 activator, but exhaust 2 cards you own.</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -444,19 +459,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,39 +773,39 @@
     <col min="7" max="7" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="11.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="1"/>
+    <col min="10" max="17" width="11.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1134,38 +1152,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="8.88671875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="8.88671875" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>93</v>
       </c>
@@ -1224,7 +1242,60 @@
         <v>110</v>
       </c>
     </row>
+    <row r="2" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="5">
+        <v>320</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="5">
+        <v>470</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="5">
+        <v>470</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="S3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -478,8 +478,8 @@
     <col width="24.21875" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
     <col width="17.109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
     <col width="9.44140625" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
-    <col width="11.5546875" customWidth="1" style="1" min="10" max="25"/>
-    <col width="11.5546875" customWidth="1" style="1" min="26" max="16384"/>
+    <col width="11.5546875" customWidth="1" style="1" min="10" max="27"/>
+    <col width="11.5546875" customWidth="1" style="1" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -1049,10 +1049,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1076,8 +1076,8 @@
     <col width="12.21875" bestFit="1" customWidth="1" style="5" min="17" max="17"/>
     <col width="13.77734375" bestFit="1" customWidth="1" style="5" min="18" max="18"/>
     <col width="4" bestFit="1" customWidth="1" style="5" min="19" max="19"/>
-    <col width="8.88671875" customWidth="1" style="5" min="20" max="33"/>
-    <col width="8.88671875" customWidth="1" style="5" min="34" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="5" min="20" max="35"/>
+    <col width="8.88671875" customWidth="1" style="5" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -1512,6 +1512,120 @@
       <c r="S8" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SEAL THE BREACH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[MANUAL] [RESTRICT 2] : Restore 1 purple card.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[RETALIATE] [RESTRICT 3] : Disintegrate 1 purple action.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BANISH TO THE VOID</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[IMMUNE] </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[RETALIATE] [RESTRICT 2] : Disintegrate 1 purple room, but disintegrate 1 card you own.</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[MANUAL] [RESTRICT 3] : Restore 1 room, but discard 1 card.</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[RETALIATE] [RESTRICT 3] : Mill 1 &lt;B&gt; card and 1 &lt;V&gt; card.</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>

--- a/New_game_effects.xlsx
+++ b/New_game_effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barhh\Pycharm projects\Card_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF72069-AE95-4138-A2F4-6423C1406565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A9303C-A9D3-442D-8867-2280EE6E0A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="164">
   <si>
     <t>Trigger</t>
   </si>
@@ -77,7 +77,7 @@
     <t>[RETALIATE]</t>
   </si>
   <si>
-    <t>(on ambush)</t>
+    <t>AN*(on ambush)</t>
   </si>
   <si>
     <t>[PREPARE PHASE]</t>
@@ -357,6 +357,162 @@
   </si>
   <si>
     <t>Nativity</t>
+  </si>
+  <si>
+    <t>JURGABUS SPACESUCKER</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BUJARGUS  SPACEGIVER</t>
+  </si>
+  <si>
+    <t>[RETALIATE] [RESTRICT 3] : Mill 2 rooms, but exhaust 1 card you own.</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>BUSGUSSPACETAKER</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>GUSBUSGUS SP ACE</t>
+  </si>
+  <si>
+    <t>[RETALIATE] [RESTRICT 1] : Draw 1 action.</t>
+  </si>
+  <si>
+    <t>[SPONTANEOUS] [RESTRICT 1] : Vanish 1 green action.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>[RETALIATE] [RESTRICT 3] : Restore 1 &lt;"&gt; card and 1 &lt;"&gt; card, but exhaust 1 anomaly you own.</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>BUSBUS "GUS"</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>BUSGUS " "</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>KINGUS "LE" BUSGUS</t>
+  </si>
+  <si>
+    <t>[RETALIATE] [RESTRICT 3] : Draw 1 green room.</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>BUUSS DE " "</t>
+  </si>
+  <si>
+    <t>LE GUSGUS DU BUS</t>
+  </si>
+  <si>
+    <t>[SPONTANEOUS] [RESTRICT 3] : Restore 1 action.</t>
+  </si>
+  <si>
+    <t>LE GREAT BUS DU GUS</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>SUS LE GREAT GUS</t>
+  </si>
+  <si>
+    <t>[MANUAL] [RESTRICT 3] : Disintegrate 1 purple action.</t>
+  </si>
+  <si>
+    <t>[MANUAL] [RESTRICT 2] : Disintegrate 1 purple card.</t>
+  </si>
+  <si>
+    <t>[RETALIATE] [RESTRICT 1] : Restore 1 purple card.</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>JACOBUS DE BUS</t>
+  </si>
+  <si>
+    <t>[SPONTANEOUS] [RESTRICT 1] : Vanish 1 red card.</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>GREAT BUSBUS CANNON</t>
+  </si>
+  <si>
+    <t>[RETALIATE] [RESTRICT 1] : Restore 1 gray anomaly.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>DANGERUS BUSBUS</t>
+  </si>
+  <si>
+    <t>[MANUAL] [RESTRICT 3] : Mill 1 purple action.</t>
+  </si>
+  <si>
+    <t>DANGERUS CALLING</t>
+  </si>
+  <si>
+    <t>[MANUAL] [RESTRICT 2] : Mill 1 gray room.</t>
+  </si>
+  <si>
+    <t>DINGERUS "GUSGUS"</t>
+  </si>
+  <si>
+    <t>[RETALIATE] [RESTRICT 3] : Disintegrate 1 black card.</t>
+  </si>
+  <si>
+    <t>BUSJUS LE JUSTE</t>
+  </si>
+  <si>
+    <t>[SPONTANEOUS] [RESTRICT 2] : Vanish 1 room.</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>BUSGUSJUS "CREATION"</t>
+  </si>
+  <si>
+    <t>[SPONTANEOUS] [RESTRICT 1] : Disintegrate 1 gray anomaly, but exhaust 2 cards you own.</t>
+  </si>
+  <si>
+    <t>[RETALIATE] [RESTRICT 3] : Mill 1 purple anomaly.</t>
+  </si>
+  <si>
+    <t>JUSJUUSTE " "</t>
+  </si>
+  <si>
+    <t>[MANUAL] [RESTRICT 2] : Draw 1 orange card.</t>
   </si>
 </sst>
 </file>
@@ -746,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,8 +917,8 @@
     <col min="7" max="7" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="32" width="11.5546875" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.5546875" style="1"/>
+    <col min="10" max="37" width="11.5546875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1140,15 +1296,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" style="5" bestFit="1" customWidth="1"/>
@@ -1168,8 +1324,8 @@
     <col min="18" max="18" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="40" width="8.88671875" style="5" customWidth="1"/>
-    <col min="41" max="16384" width="8.88671875" style="5"/>
+    <col min="21" max="45" width="8.88671875" style="5" customWidth="1"/>
+    <col min="46" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1234,6 +1390,688 @@
         <v>111</v>
       </c>
     </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>1468</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>430</v>
+      </c>
+      <c r="S2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>1420</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <v>240</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3">
+        <v>270</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3">
+        <v>260</v>
+      </c>
+      <c r="S3" t="s">
+        <v>117</v>
+      </c>
+      <c r="T3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>1212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>410</v>
+      </c>
+      <c r="S4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>1140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
+        <v>126</v>
+      </c>
+      <c r="T6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>807</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
+        <v>128</v>
+      </c>
+      <c r="T7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>605</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>390</v>
+      </c>
+      <c r="S8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9">
+        <v>1215</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9">
+        <v>620</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>610</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9">
+        <v>680</v>
+      </c>
+      <c r="S9" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10">
+        <v>703</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>160</v>
+      </c>
+      <c r="S10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11">
+        <v>1106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>330</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11">
+        <v>350</v>
+      </c>
+      <c r="S11" t="s">
+        <v>130</v>
+      </c>
+      <c r="T11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <v>1270</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12">
+        <v>870</v>
+      </c>
+      <c r="S12" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13">
+        <v>1102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" t="s">
+        <v>143</v>
+      </c>
+      <c r="T13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14">
+        <v>954</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14">
+        <v>520</v>
+      </c>
+      <c r="S14" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15">
+        <v>1348</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" t="s">
+        <v>149</v>
+      </c>
+      <c r="T15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <v>1101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16">
+        <v>960</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16">
+        <v>970</v>
+      </c>
+      <c r="S16" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17">
+        <v>1139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s">
+        <v>133</v>
+      </c>
+      <c r="T17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18">
+        <v>1187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <v>370</v>
+      </c>
+      <c r="S18" t="s">
+        <v>133</v>
+      </c>
+      <c r="T18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19">
+        <v>1080</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19">
+        <v>660</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19">
+        <v>690</v>
+      </c>
+      <c r="S19" t="s">
+        <v>158</v>
+      </c>
+      <c r="T19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20">
+        <v>1412</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" t="s">
+        <v>113</v>
+      </c>
+      <c r="T20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21">
+        <v>854</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>163</v>
+      </c>
+      <c r="S21" t="s">
+        <v>128</v>
+      </c>
+      <c r="T21" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
